--- a/finalData/Aestheticfinal.xlsx
+++ b/finalData/Aestheticfinal.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u720149\OneDrive - O-I\SummerInternProject2019\finalData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u715216\SummerInternProject2019\finalData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>Time</t>
   </si>
@@ -52,124 +52,103 @@
     <t>keyPhrases</t>
   </si>
   <si>
+    <t>News</t>
+  </si>
+  <si>
     <t>Irrelevent</t>
   </si>
   <si>
-    <t>2019-06-27 23:58:05</t>
-  </si>
-  <si>
-    <t>2019-06-27 23:38:19</t>
-  </si>
-  <si>
-    <t>2019-06-27 23:36:49</t>
-  </si>
-  <si>
-    <t>2019-06-27 23:31:22</t>
-  </si>
-  <si>
-    <t>2019-06-27 23:27:09</t>
-  </si>
-  <si>
-    <t>2019-06-27 23:24:47</t>
-  </si>
-  <si>
-    <t>2019-06-27 23:19:23</t>
-  </si>
-  <si>
-    <t>2019-06-27 23:07:10</t>
-  </si>
-  <si>
-    <t>2019-06-27 23:05:40</t>
-  </si>
-  <si>
-    <t>2019-06-27 22:58:58</t>
-  </si>
-  <si>
-    <t>2019-06-27 22:57:43</t>
-  </si>
-  <si>
-    <t>2019-06-27 22:47:59</t>
-  </si>
-  <si>
-    <t>2019-06-27 22:26:58</t>
-  </si>
-  <si>
-    <t>Don't most bottlers line aluminum cans with a thin plastic coating to prevent chemical reactions with the can?  Pep https://t.co/RlXIGR6xFb</t>
-  </si>
-  <si>
-    <t>RT @girlsparky_: @josecanyousee @rsgarza66 Last time I checked accommodations come with more than a dirt floor and an aluminum blanket. S</t>
-  </si>
-  <si>
-    <t>RT @ariasagirl: why i kinda miss smoking weed out the pop can ..... aluminum hit different</t>
-  </si>
-  <si>
-    <t>@trutherbothazel The Long Wave, Low Frequency can only travel a short distance which I find impossible to reach a S https://t.co/eo8F9BZHiX</t>
-  </si>
-  <si>
-    <t>@StdBikeRepair Alloy post in steel frame presumably? You can send the frame to a local metal stripper that might ha https://t.co/1nZw4KJM9S</t>
-  </si>
-  <si>
-    <t>@lavadog25 I cant even get aluminum foil straight are you kidding me</t>
-  </si>
-  <si>
-    <t>Enjoy your backyard this 4th of July with a brand new aluminum awning. 20% off special going on now.  Shade, Rain &amp;amp; https://t.co/z4GUhACRnj</t>
-  </si>
-  <si>
-    <t>We need tough gear for our tough fish! Our friends at @tsunamitackle supply us with their Ultra Strong Aluminum Pli https://t.co/12njr5HXwk</t>
-  </si>
-  <si>
-    <t>The shoppers I spoke to are really unenthused (and I mean really, really unenthused) about the idea of drinking wat https://t.co/FkBKk96dAB</t>
-  </si>
-  <si>
-    <t>RT @LaLaRueFrench75: The CDCs partners (like politicians &amp;amp; the corporate news media), have been marketing vaccines tainted with aluminum,</t>
-  </si>
-  <si>
-    <t>@AASwiftie13 @ReeseW The apartment bldg I live in now, small town in RI, no recycling. Everyone else, biweekly curb https://t.co/kvnOACjthL</t>
-  </si>
-  <si>
-    <t>aluminum can</t>
+    <t>2019-06-24 18:06:01</t>
+  </si>
+  <si>
+    <t>2019-06-24 13:58:02</t>
+  </si>
+  <si>
+    <t>2019-06-24 13:30:31</t>
+  </si>
+  <si>
+    <t>2019-06-24 11:44:51</t>
+  </si>
+  <si>
+    <t>2019-06-24 11:07:34</t>
+  </si>
+  <si>
+    <t>2019-06-24 10:43:48</t>
+  </si>
+  <si>
+    <t>2019-06-23 07:15:49</t>
+  </si>
+  <si>
+    <t>2019-06-22 09:37:59</t>
+  </si>
+  <si>
+    <t>2019-06-21 19:05:13</t>
+  </si>
+  <si>
+    <t>2019-06-21 18:57:44</t>
+  </si>
+  <si>
+    <t>Join us for a #LunchandLearn presentation given by Guardian Glass at 12:00pm on Thursday, June 27th at Footnote Cof https://t.co/WFltyzknFv</t>
+  </si>
+  <si>
+    <t>RT @perlamadrepmd: Quando l'allievo supera il maestro.. non resta che guardare ammirati! #perlamadredesign #24giugno #glassdesign #glass #v</t>
+  </si>
+  <si>
+    <t>Per Twitter \n\nThe cage project starts from the experience of Odo Fioravanti in the design of industrial products an https://t.co/L4IIi1CqSD</t>
+  </si>
+  <si>
+    <t>It is a beautiful day #glassdesign #lovemakingglass #create #discover #learn @ Istanbul, Turkey https://t.co/kpKRG4hF2h</t>
+  </si>
+  <si>
+    <t>Quando l'allievo supera il maestro.. non resta che guardare ammirati! #perlamadredesign #24giugno #glassdesign https://t.co/ATaDfgO8C4</t>
+  </si>
+  <si>
+    <t>Aquarium... .\n.\n.\n#Pozna #Poznan #architecture_hunter #architecture #facade #facadelovers #glassdesign #glass https://t.co/2gkGcPpLbe</t>
+  </si>
+  <si>
+    <t>KARTIO5027\n\nIn stock | TUMBLER 5027 | Kaj Franck for Nuutajrvi | #kajfranck #nuutajrvi https://t.co/9V7X3UtirV</t>
+  </si>
+  <si>
+    <t>Accept the #challenges so that you can feel the exhilaration of #victory. \n.\n.\n#teamwork #TGIF #HappyFriday https://t.co/EwIlETXCyN</t>
+  </si>
+  <si>
+    <t>RT @Saverglass: Customize your decanter! Hot stamping is mesmerizing due to its exceptional radiance. It creates a high-value look and is a</t>
+  </si>
+  <si>
+    <t>glass</t>
   </si>
   <si>
     <t>Aesthetic</t>
   </si>
   <si>
-    <t>['plastic coating', 'bottlers line aluminum cans', 'chemical reactions', 'Pep']</t>
-  </si>
-  <si>
-    <t>['josecanyousee', 'rsgarza66', 'dirt floor', 'aluminum blanket', 'time', 'accommodations']</t>
-  </si>
-  <si>
-    <t>['ariasagirl', 'smoking', 'aluminum', 'RT', 'pop']</t>
-  </si>
-  <si>
-    <t>['Low Frequency', 'trutherbothazel', 'Long Wave', 'short distance']</t>
-  </si>
-  <si>
-    <t>['steel frame', 'local metal stripper', 'StdBikeRepair Alloy post', 'ha']</t>
-  </si>
-  <si>
-    <t>['lavadog25', 'aluminum foil']</t>
-  </si>
-  <si>
-    <t>['brand new aluminum awning', 'amp', 'Shade', 'Rain', 'backyard']</t>
-  </si>
-  <si>
-    <t>['tough gear', 'tough fish', 'Strong Aluminum Pli', 'tsunamitackle', 'friends']</t>
-  </si>
-  <si>
-    <t>['idea of drinking wat', 'shoppers']</t>
-  </si>
-  <si>
-    <t>['amp', 'CDCs partners', 'politicians', 'corporate news media', 'LaLaRueFrench75', 'vaccines', 'aluminum']</t>
-  </si>
-  <si>
-    <t>['apartment bldg', 'small town', 'AASwiftie13', 'ReeseW', 'RI', 'recycling', 'biweekly curb']</t>
+    <t>['Guardian Glass', 'LunchandLearn presentation', 'Footnote Cof']</t>
+  </si>
+  <si>
+    <t>['perlamadrepmd', "Quando l'allievo supera il maestro", 'giugno', 'glassdesign', 'RT', 'resta che guardare ammirati', 'perlamadredesign']</t>
+  </si>
+  <si>
+    <t>['experience of Odo Fioravanti', 'design of industrial products', 'cage project', 'Twitter']</t>
+  </si>
+  <si>
+    <t>['beautiful day', 'glassdesign', 'lovemakingglass', 'Istanbul', 'Turkey']</t>
+  </si>
+  <si>
+    <t>["Quando l'allievo supera il maestro", 'resta che guardare ammirati', 'perlamadredesign', 'giugno', 'glassdesign']</t>
+  </si>
+  <si>
+    <t>['architecture', 'hunter', 'facadelovers', 'glassdesign', 'Poznan', 'Aquarium']</t>
+  </si>
+  <si>
+    <t>['Nuutajrvi', 'TUMBLER', 'Kaj Franck', 'stock', 'kajfranck', 'KARTIO5027']</t>
+  </si>
+  <si>
+    <t>['HappyFriday', 'teamwork', 'TGIF', 'exhilaration', 'victory', 'challenges']</t>
+  </si>
+  <si>
+    <t>['Hot stamping', 'exceptional radiance', 'RT', 'Saverglass', 'decanter', 'high-value']</t>
   </si>
   <si>
     <t>Category</t>
-  </si>
-  <si>
-    <t>Lifestyle</t>
   </si>
   <si>
     <t>Cost</t>
@@ -558,16 +537,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="123.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="132.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,381 +582,327 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0.77087366580963135</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
         <v>35</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.98971700668334961</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
         <v>36</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
         <v>37</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>0.10592555999755859</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
         <v>38</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="E4">
-        <v>3.3306479454040527E-2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
         <v>39</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0.161847859621048</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0.87725639343261719</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" t="s">
         <v>40</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>28</v>
-      </c>
-      <c r="E6">
-        <v>3.3306479454040527E-2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0.76633745431900024</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0.1979393661022186</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.96771252155303955</v>
-      </c>
-      <c r="F9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0.5</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
       <c r="C11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>0.5</v>
+        <v>0.91197222471237183</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>27</v>
-      </c>
-      <c r="E12">
-        <v>0.5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>0.5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0.24991485476493841</v>
-      </c>
-      <c r="F14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14">
+      <c r="L11">
         <v>0</v>
       </c>
     </row>
@@ -986,87 +913,79 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/finalData/Aestheticfinal.xlsx
+++ b/finalData/Aestheticfinal.xlsx
@@ -1,9 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21812"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_9ED08F777121543092B896B8562D66F87D13003A" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2ba2\AC\Temp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_9ED08F777121543092B896B8562D66F87D13003A" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{D03D3765-E5AB-4913-8FB7-32A49262B02C}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -354,7 +359,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -759,17 +764,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="132.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="122.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -807,7 +812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -842,7 +847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -874,7 +879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -906,7 +911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -938,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -970,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1002,7 +1007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1034,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1069,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1098,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1133,7 +1138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -1162,10 +1167,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1194,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -1226,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -1258,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -1290,10 +1295,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -1322,10 +1327,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -1354,10 +1359,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -1386,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -1418,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -1435,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.1643333435058594E-2</v>
+        <v>0.9</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
@@ -1453,7 +1458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>73</v>
       </c>
@@ -1482,10 +1487,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -1514,10 +1519,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -1546,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -1578,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -1610,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>88</v>
       </c>
@@ -1642,10 +1647,10 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>91</v>
       </c>
@@ -1674,10 +1679,10 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>94</v>
       </c>
@@ -1706,10 +1711,10 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1738,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -1770,10 +1775,10 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1805,7 +1810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -1834,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1850,14 +1855,14 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1865,7 +1870,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1873,7 +1878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1881,7 +1886,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1889,7 +1894,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1897,7 +1902,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1905,7 +1910,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1913,7 +1918,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -2107,13 +2112,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6813D979-2D43-4A52-8956-A188C2DC08AD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6813D979-2D43-4A52-8956-A188C2DC08AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E15C02BC-B0C1-422D-8CFB-B11A0C6041E5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E15C02BC-B0C1-422D-8CFB-B11A0C6041E5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d0f83324-e24c-4415-8ea4-7b3a4c207790"/>
+    <ds:schemaRef ds:uri="9efc881c-c5bb-47d9-bf3a-c9d7f253646b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E429B670-8F3A-4136-8C5E-39A5CBD04D6A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E429B670-8F3A-4136-8C5E-39A5CBD04D6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/finalData/Aestheticfinal.xlsx
+++ b/finalData/Aestheticfinal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2ba2\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_3bef\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_9ED08F777121543092B896B8562D66F87D13003A" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{D03D3765-E5AB-4913-8FB7-32A49262B02C}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_9ED08F777121543092B896B8562D66F87D13003A" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{065A990B-DDAD-4447-85D0-E204E8E1A06F}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="108">
   <si>
     <t>Time</t>
   </si>
@@ -764,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,6 +901,9 @@
       <c r="G4" t="s">
         <v>15</v>
       </c>
+      <c r="H4" t="s">
+        <v>103</v>
+      </c>
       <c r="J4" t="s">
         <v>23</v>
       </c>
@@ -965,6 +968,9 @@
       <c r="G6" t="s">
         <v>15</v>
       </c>
+      <c r="H6" t="s">
+        <v>105</v>
+      </c>
       <c r="J6" t="s">
         <v>27</v>
       </c>
@@ -1128,6 +1134,9 @@
       <c r="G11" t="s">
         <v>15</v>
       </c>
+      <c r="H11" t="s">
+        <v>105</v>
+      </c>
       <c r="J11" t="s">
         <v>42</v>
       </c>
@@ -1256,6 +1265,9 @@
       <c r="G15" t="s">
         <v>15</v>
       </c>
+      <c r="H15" t="s">
+        <v>105</v>
+      </c>
       <c r="J15" t="s">
         <v>54</v>
       </c>
@@ -1280,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.24417915940284729</v>
+        <v>0.7</v>
       </c>
       <c r="F16" t="s">
         <v>14</v>
@@ -1384,6 +1396,9 @@
       <c r="G19" t="s">
         <v>15</v>
       </c>
+      <c r="H19" t="s">
+        <v>105</v>
+      </c>
       <c r="J19" t="s">
         <v>66</v>
       </c>
@@ -1608,6 +1623,9 @@
       <c r="G26" t="s">
         <v>15</v>
       </c>
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
       <c r="J26" t="s">
         <v>87</v>
       </c>
@@ -1844,6 +1862,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{96E8F062-7BB1-43E6-BC0C-62A26EDDFE63}">
+          <x14:formula1>
+            <xm:f>'Sheet 2'!$B$2:$B$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>H1:I1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1851,8 +1881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1932,6 +1962,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1940,9 +1976,9 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CD6DE5DB5A34A749BF3DACFD3E2D6C60" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="168b8d325a13eff6fb375030edbea8e1">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d0f83324-e24c-4415-8ea4-7b3a4c207790" xmlns:ns3="9efc881c-c5bb-47d9-bf3a-c9d7f253646b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="818ea96dd1355113715be5cc0484ce34" ns2:_="" ns3:_="">
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CD6DE5DB5A34A749BF3DACFD3E2D6C60" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="745738122f243e8777abe46a53fd78c7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d0f83324-e24c-4415-8ea4-7b3a4c207790" xmlns:ns3="9efc881c-c5bb-47d9-bf3a-c9d7f253646b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3dbccdd7214daa34df71e55f0ce0a251" ns2:_="" ns3:_="">
     <xsd:import namespace="d0f83324-e24c-4415-8ea4-7b3a4c207790"/>
     <xsd:import namespace="9efc881c-c5bb-47d9-bf3a-c9d7f253646b"/>
     <xsd:element name="properties">
@@ -1955,6 +1991,10 @@
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1973,6 +2013,28 @@
     <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2105,13 +2167,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E429B670-8F3A-4136-8C5E-39A5CBD04D6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6813D979-2D43-4A52-8956-A188C2DC08AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2119,8 +2184,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E15C02BC-B0C1-422D-8CFB-B11A0C6041E5}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C73DC6D-C009-446E-851F-DBA2A885ADB6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -2136,13 +2201,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E429B670-8F3A-4136-8C5E-39A5CBD04D6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>